--- a/labdata/5.21/通过多个J48二分类器分类/ClsByBinary_confusionMat.xlsx
+++ b/labdata/5.21/通过多个J48二分类器分类/ClsByBinary_confusionMat.xlsx
@@ -14,12 +14,13 @@
   <sheets>
     <sheet name="ClsByBinary_confusionMat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -85,6 +86,10 @@
   </si>
   <si>
     <t>样本个数</t>
+  </si>
+  <si>
+    <t>平均F1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1044,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2242,6 +2247,15 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <f>AVERAGE(D20:D34)</f>
+        <v>0.88177529208699978</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
